--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf21</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.7644334015831</v>
+        <v>382.5269060000001</v>
       </c>
       <c r="H2">
-        <v>27.7644334015831</v>
+        <v>1147.580718</v>
       </c>
       <c r="I2">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589805</v>
       </c>
       <c r="J2">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589803</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2332183365045</v>
+        <v>15.44356366666667</v>
       </c>
       <c r="N2">
-        <v>14.2332183365045</v>
+        <v>46.330691</v>
       </c>
       <c r="O2">
-        <v>0.3020448479784348</v>
+        <v>0.2921725357712574</v>
       </c>
       <c r="P2">
-        <v>0.3020448479784348</v>
+        <v>0.2921725357712575</v>
       </c>
       <c r="Q2">
-        <v>395.1772425940706</v>
+        <v>5907.578627024017</v>
       </c>
       <c r="R2">
-        <v>395.1772425940706</v>
+        <v>53168.20764321615</v>
       </c>
       <c r="S2">
-        <v>0.09966816096900072</v>
+        <v>0.2512411801602131</v>
       </c>
       <c r="T2">
-        <v>0.09966816096900072</v>
+        <v>0.2512411801602131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.7644334015831</v>
+        <v>382.5269060000001</v>
       </c>
       <c r="H3">
-        <v>27.7644334015831</v>
+        <v>1147.580718</v>
       </c>
       <c r="I3">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589805</v>
       </c>
       <c r="J3">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589803</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>21.090500663132</v>
+        <v>1.215543</v>
       </c>
       <c r="N3">
-        <v>21.090500663132</v>
+        <v>3.646629</v>
       </c>
       <c r="O3">
-        <v>0.4475640656931878</v>
+        <v>0.02299652387975402</v>
       </c>
       <c r="P3">
-        <v>0.4475640656931878</v>
+        <v>0.02299652387975402</v>
       </c>
       <c r="Q3">
-        <v>585.5658010675727</v>
+        <v>464.9779028999581</v>
       </c>
       <c r="R3">
-        <v>585.5658010675727</v>
+        <v>4184.801126099623</v>
       </c>
       <c r="S3">
-        <v>0.14768630434191</v>
+        <v>0.01977486961216395</v>
       </c>
       <c r="T3">
-        <v>0.14768630434191</v>
+        <v>0.01977486961216395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.7644334015831</v>
+        <v>382.5269060000001</v>
       </c>
       <c r="H4">
-        <v>27.7644334015831</v>
+        <v>1147.580718</v>
       </c>
       <c r="I4">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589805</v>
       </c>
       <c r="J4">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589803</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7991451437728</v>
+        <v>23.02356833333333</v>
       </c>
       <c r="N4">
-        <v>11.7991451437728</v>
+        <v>69.070705</v>
       </c>
       <c r="O4">
-        <v>0.2503910863283775</v>
+        <v>0.4355765604134518</v>
       </c>
       <c r="P4">
-        <v>0.2503910863283775</v>
+        <v>0.4355765604134519</v>
       </c>
       <c r="Q4">
-        <v>327.5965795398926</v>
+        <v>8807.134359629577</v>
       </c>
       <c r="R4">
-        <v>327.5965795398926</v>
+        <v>79264.20923666621</v>
       </c>
       <c r="S4">
-        <v>0.08262355496016099</v>
+        <v>0.374555290761753</v>
       </c>
       <c r="T4">
-        <v>0.08262355496016099</v>
+        <v>0.374555290761753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.3758174514133</v>
+        <v>382.5269060000001</v>
       </c>
       <c r="H5">
-        <v>56.3758174514133</v>
+        <v>1147.580718</v>
       </c>
       <c r="I5">
-        <v>0.6700219797289283</v>
+        <v>0.8599069022589805</v>
       </c>
       <c r="J5">
-        <v>0.6700219797289283</v>
+        <v>0.8599069022589803</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.2332183365045</v>
+        <v>13.17500933333333</v>
       </c>
       <c r="N5">
-        <v>14.2332183365045</v>
+        <v>39.525028</v>
       </c>
       <c r="O5">
-        <v>0.3020448479784348</v>
+        <v>0.2492543799355367</v>
       </c>
       <c r="P5">
-        <v>0.3020448479784348</v>
+        <v>0.2492543799355367</v>
       </c>
       <c r="Q5">
-        <v>802.4093186848861</v>
+        <v>5039.795556801124</v>
       </c>
       <c r="R5">
-        <v>802.4093186848861</v>
+        <v>45358.16001121011</v>
       </c>
       <c r="S5">
-        <v>0.2023766870094341</v>
+        <v>0.2143355617248504</v>
       </c>
       <c r="T5">
-        <v>0.2023766870094341</v>
+        <v>0.2143355617248503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>56.3758174514133</v>
+        <v>0.4929823333333334</v>
       </c>
       <c r="H6">
-        <v>56.3758174514133</v>
+        <v>1.478947</v>
       </c>
       <c r="I6">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="J6">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.090500663132</v>
+        <v>15.44356366666667</v>
       </c>
       <c r="N6">
-        <v>21.090500663132</v>
+        <v>46.330691</v>
       </c>
       <c r="O6">
-        <v>0.4475640656931878</v>
+        <v>0.2921725357712574</v>
       </c>
       <c r="P6">
-        <v>0.4475640656931878</v>
+        <v>0.2921725357712575</v>
       </c>
       <c r="Q6">
-        <v>1188.994215343641</v>
+        <v>7.613404051375223</v>
       </c>
       <c r="R6">
-        <v>1188.994215343641</v>
+        <v>68.520636462377</v>
       </c>
       <c r="S6">
-        <v>0.2998777613512778</v>
+        <v>0.0003237875853491002</v>
       </c>
       <c r="T6">
-        <v>0.2998777613512778</v>
+        <v>0.0003237875853491002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4929823333333334</v>
+      </c>
+      <c r="H7">
+        <v>1.478947</v>
+      </c>
+      <c r="I7">
+        <v>0.001108206780950124</v>
+      </c>
+      <c r="J7">
+        <v>0.001108206780950124</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>1.215543</v>
+      </c>
+      <c r="N7">
+        <v>3.646629</v>
+      </c>
+      <c r="O7">
+        <v>0.02299652387975402</v>
+      </c>
+      <c r="P7">
+        <v>0.02299652387975402</v>
+      </c>
+      <c r="Q7">
+        <v>0.599241224407</v>
+      </c>
+      <c r="R7">
+        <v>5.393171019663</v>
+      </c>
+      <c r="S7">
+        <v>2.548490370182486E-05</v>
+      </c>
+      <c r="T7">
+        <v>2.548490370182486E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4929823333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.478947</v>
+      </c>
+      <c r="I8">
+        <v>0.001108206780950124</v>
+      </c>
+      <c r="J8">
+        <v>0.001108206780950124</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>23.02356833333333</v>
+      </c>
+      <c r="N8">
+        <v>69.070705</v>
+      </c>
+      <c r="O8">
+        <v>0.4355765604134518</v>
+      </c>
+      <c r="P8">
+        <v>0.4355765604134519</v>
+      </c>
+      <c r="Q8">
+        <v>11.35021243862611</v>
+      </c>
+      <c r="R8">
+        <v>102.151911947635</v>
+      </c>
+      <c r="S8">
+        <v>0.0004827088978731187</v>
+      </c>
+      <c r="T8">
+        <v>0.0004827088978731187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4929823333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.478947</v>
+      </c>
+      <c r="I9">
+        <v>0.001108206780950124</v>
+      </c>
+      <c r="J9">
+        <v>0.001108206780950124</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.17500933333333</v>
+      </c>
+      <c r="N9">
+        <v>39.525028</v>
+      </c>
+      <c r="O9">
+        <v>0.2492543799355367</v>
+      </c>
+      <c r="P9">
+        <v>0.2492543799355367</v>
+      </c>
+      <c r="Q9">
+        <v>6.495046842835111</v>
+      </c>
+      <c r="R9">
+        <v>58.455421585516</v>
+      </c>
+      <c r="S9">
+        <v>0.0002762253940260804</v>
+      </c>
+      <c r="T9">
+        <v>0.0002762253940260803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>56.3758174514133</v>
-      </c>
-      <c r="H7">
-        <v>56.3758174514133</v>
-      </c>
-      <c r="I7">
-        <v>0.6700219797289283</v>
-      </c>
-      <c r="J7">
-        <v>0.6700219797289283</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>11.7991451437728</v>
-      </c>
-      <c r="N7">
-        <v>11.7991451437728</v>
-      </c>
-      <c r="O7">
-        <v>0.2503910863283775</v>
-      </c>
-      <c r="P7">
-        <v>0.2503910863283775</v>
-      </c>
-      <c r="Q7">
-        <v>665.1864527080651</v>
-      </c>
-      <c r="R7">
-        <v>665.1864527080651</v>
-      </c>
-      <c r="S7">
-        <v>0.1677675313682165</v>
-      </c>
-      <c r="T7">
-        <v>0.1677675313682165</v>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>61.68730866666667</v>
+      </c>
+      <c r="H10">
+        <v>185.061926</v>
+      </c>
+      <c r="I10">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="J10">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>15.44356366666667</v>
+      </c>
+      <c r="N10">
+        <v>46.330691</v>
+      </c>
+      <c r="O10">
+        <v>0.2921725357712574</v>
+      </c>
+      <c r="P10">
+        <v>0.2921725357712575</v>
+      </c>
+      <c r="Q10">
+        <v>952.6718788189853</v>
+      </c>
+      <c r="R10">
+        <v>8574.046909370867</v>
+      </c>
+      <c r="S10">
+        <v>0.04051582251398723</v>
+      </c>
+      <c r="T10">
+        <v>0.04051582251398723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>61.68730866666667</v>
+      </c>
+      <c r="H11">
+        <v>185.061926</v>
+      </c>
+      <c r="I11">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="J11">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.215543</v>
+      </c>
+      <c r="N11">
+        <v>3.646629</v>
+      </c>
+      <c r="O11">
+        <v>0.02299652387975402</v>
+      </c>
+      <c r="P11">
+        <v>0.02299652387975402</v>
+      </c>
+      <c r="Q11">
+        <v>74.98357623860601</v>
+      </c>
+      <c r="R11">
+        <v>674.8521861474541</v>
+      </c>
+      <c r="S11">
+        <v>0.003188948192859</v>
+      </c>
+      <c r="T11">
+        <v>0.003188948192858999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>61.68730866666667</v>
+      </c>
+      <c r="H12">
+        <v>185.061926</v>
+      </c>
+      <c r="I12">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="J12">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>23.02356833333333</v>
+      </c>
+      <c r="N12">
+        <v>69.070705</v>
+      </c>
+      <c r="O12">
+        <v>0.4355765604134518</v>
+      </c>
+      <c r="P12">
+        <v>0.4355765604134519</v>
+      </c>
+      <c r="Q12">
+        <v>1420.261966386426</v>
+      </c>
+      <c r="R12">
+        <v>12782.35769747783</v>
+      </c>
+      <c r="S12">
+        <v>0.06040178474126297</v>
+      </c>
+      <c r="T12">
+        <v>0.06040178474126298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>61.68730866666667</v>
+      </c>
+      <c r="H13">
+        <v>185.061926</v>
+      </c>
+      <c r="I13">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="J13">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.17500933333333</v>
+      </c>
+      <c r="N13">
+        <v>39.525028</v>
+      </c>
+      <c r="O13">
+        <v>0.2492543799355367</v>
+      </c>
+      <c r="P13">
+        <v>0.2492543799355367</v>
+      </c>
+      <c r="Q13">
+        <v>812.7308674315476</v>
+      </c>
+      <c r="R13">
+        <v>7314.577806883929</v>
+      </c>
+      <c r="S13">
+        <v>0.03456432409584341</v>
+      </c>
+      <c r="T13">
+        <v>0.03456432409584341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.139687</v>
+      </c>
+      <c r="H14">
+        <v>0.419061</v>
+      </c>
+      <c r="I14">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="J14">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>15.44356366666667</v>
+      </c>
+      <c r="N14">
+        <v>46.330691</v>
+      </c>
+      <c r="O14">
+        <v>0.2921725357712574</v>
+      </c>
+      <c r="P14">
+        <v>0.2921725357712575</v>
+      </c>
+      <c r="Q14">
+        <v>2.157265077905667</v>
+      </c>
+      <c r="R14">
+        <v>19.415385701151</v>
+      </c>
+      <c r="S14">
+        <v>9.174551170797822E-05</v>
+      </c>
+      <c r="T14">
+        <v>9.174551170797822E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.139687</v>
+      </c>
+      <c r="H15">
+        <v>0.419061</v>
+      </c>
+      <c r="I15">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="J15">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.215543</v>
+      </c>
+      <c r="N15">
+        <v>3.646629</v>
+      </c>
+      <c r="O15">
+        <v>0.02299652387975402</v>
+      </c>
+      <c r="P15">
+        <v>0.02299652387975402</v>
+      </c>
+      <c r="Q15">
+        <v>0.169795555041</v>
+      </c>
+      <c r="R15">
+        <v>1.528159995369</v>
+      </c>
+      <c r="S15">
+        <v>7.221171029246098E-06</v>
+      </c>
+      <c r="T15">
+        <v>7.221171029246096E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.139687</v>
+      </c>
+      <c r="H16">
+        <v>0.419061</v>
+      </c>
+      <c r="I16">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="J16">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>23.02356833333333</v>
+      </c>
+      <c r="N16">
+        <v>69.070705</v>
+      </c>
+      <c r="O16">
+        <v>0.4355765604134518</v>
+      </c>
+      <c r="P16">
+        <v>0.4355765604134519</v>
+      </c>
+      <c r="Q16">
+        <v>3.216093189778333</v>
+      </c>
+      <c r="R16">
+        <v>28.944838708005</v>
+      </c>
+      <c r="S16">
+        <v>0.0001367760125627267</v>
+      </c>
+      <c r="T16">
+        <v>0.0001367760125627267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.139687</v>
+      </c>
+      <c r="H17">
+        <v>0.419061</v>
+      </c>
+      <c r="I17">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="J17">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.17500933333333</v>
+      </c>
+      <c r="N17">
+        <v>39.525028</v>
+      </c>
+      <c r="O17">
+        <v>0.2492543799355367</v>
+      </c>
+      <c r="P17">
+        <v>0.2492543799355367</v>
+      </c>
+      <c r="Q17">
+        <v>1.840377528745333</v>
+      </c>
+      <c r="R17">
+        <v>16.563397758708</v>
+      </c>
+      <c r="S17">
+        <v>7.826872081688069E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.826872081688069E-05</v>
       </c>
     </row>
   </sheetData>
